--- a/cypress/src/test-cases/Test-cases for Telnyx.xlsx
+++ b/cypress/src/test-cases/Test-cases for Telnyx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasylek/Desktop/Project_2/cypress/src/test-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0465BE-5312-8841-B67C-50CEA386386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE237E-0A63-5040-85EC-7B0F5F243E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{D408A1E0-D505-924D-8904-B5569ADCB9A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +101,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>The site https://telnyx.com/  must be open. The tester has an account on the site</t>
-  </si>
-  <si>
     <t>1. Click the button 'Log in'</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>A5</t>
   </si>
   <si>
-    <t>Check the ability to recover password</t>
-  </si>
-  <si>
     <t>2. Click the button 'Forgot your password?'</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t xml:space="preserve">A6 </t>
   </si>
   <si>
-    <t>Check the ability to use a support center</t>
-  </si>
-  <si>
     <t>1. Click the button 'Support Center'</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the registration of a new user with central 'Email' field </t>
-  </si>
-  <si>
     <t>1. Fill the 'Email' field</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
   </si>
   <si>
     <t>A8</t>
-  </si>
-  <si>
-    <t>Check that main page contains categories such 'Products', 'Solutions', 'Network', 'Resoucres', 'Company' and 'Pricing'</t>
   </si>
   <si>
     <t>The category 'Products' should be shown</t>
@@ -231,9 +216,6 @@
     <t xml:space="preserve">A10 </t>
   </si>
   <si>
-    <t>Check that the site is linked with LinkedIn</t>
-  </si>
-  <si>
     <t>1. Scroll down to the footer</t>
   </si>
   <si>
@@ -246,9 +228,6 @@
     <t>The user should be switched to the LinkedIn</t>
   </si>
   <si>
-    <t>Check the ability to return to the main page by clicking on site logo</t>
-  </si>
-  <si>
     <t>2. Click the site logo</t>
   </si>
   <si>
@@ -261,18 +240,9 @@
     <t>Checking that it is not possible to register a new user with valid but not business email</t>
   </si>
   <si>
-    <t xml:space="preserve">The registration process shouldn't be finished successfuly, the corresponding information message 'You cannot register using an email from this provider' should be displayed to the user </t>
-  </si>
-  <si>
     <t>The site  https://telnyx.com/  must be open</t>
   </si>
   <si>
-    <t>Check the sign in of an existing user with not confirmed email</t>
-  </si>
-  <si>
-    <t>Check the sign in of an not existing user</t>
-  </si>
-  <si>
     <t xml:space="preserve">The log in process shouldn't be finished successfuly, the corresponding information message 'You must confirm your email before you can sign in' should be displayed to the user </t>
   </si>
   <si>
@@ -309,10 +279,37 @@
     <t xml:space="preserve">The password recovery process should be finished successfuly, the corresponding information message 'We have accepted your password reset request' should be displayed to the user </t>
   </si>
   <si>
-    <t xml:space="preserve">The registration process should be finished successfuly, the corresponding information message "We've sent you an email to activate your account" should be displayed to the user </t>
-  </si>
-  <si>
     <t xml:space="preserve">The registration process shouldn't be finished successfuly, the corresponding information message 'One or more fields are not valid' should be displayed to the user </t>
+  </si>
+  <si>
+    <t>The site https://telnyx.com/  must be open. The tester has an account with no confirmed email on the site</t>
+  </si>
+  <si>
+    <t>Сhecking the functionality of the "LinkedIn" reference on the main page</t>
+  </si>
+  <si>
+    <t>Checking the ability to return to the main page by clicking on site logo</t>
+  </si>
+  <si>
+    <t>Checking that when you open the menu tab, categories 'Products', 'Solutions', 'Network', 'Resoucres', 'Company' and 'Pricing' are visible</t>
+  </si>
+  <si>
+    <t>Checking the ability to use a support center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking the ability to go to the sign-up page with the central ‘Email’ field </t>
+  </si>
+  <si>
+    <t>Checking the ability to recover password</t>
+  </si>
+  <si>
+    <t>Checking the sign in of an not existing user</t>
+  </si>
+  <si>
+    <t>Checking the sign in of an existing user with not confirmed email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The registration process shouldn't be finished successfuly, the corresponding information message 'We were unable to create a new account with this email' should be displayed to the user </t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,42 +451,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,13 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,7 +505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -818,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AE6F12-7BDC-3E4B-87DC-219B0AFDE75B}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,13 +839,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -881,9 +856,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
@@ -892,9 +867,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -903,9 +878,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
@@ -914,9 +889,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
@@ -925,24 +900,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -953,20 +928,20 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
@@ -975,9 +950,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
@@ -986,9 +961,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
@@ -996,522 +971,482 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+    <row r="13" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="5" t="s">
-        <v>28</v>
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="B22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="E23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="5" t="s">
+    <row r="25" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="5" t="s">
+      <c r="B26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="E26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="16" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="E27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="5" t="s">
+    <row r="32" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="2" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="37" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="16" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="16" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="C62" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="52" spans="2:3" ht="100" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C33:C39"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="A14:A17"/>
@@ -1521,27 +1456,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
